--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/cartas/OsinergminMercaptano.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/cartas/OsinergminMercaptano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B2C4E1-E758-4D2E-9B04-DF75833CC8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F88DC6-259F-4CB8-B50E-C86EEBC6E760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C8FC5450-17C5-4C27-BE32-326C1CD393B2}"/>
   </bookViews>
@@ -296,10 +296,10 @@
     <t>'@ 60°F/60°F</t>
   </si>
   <si>
-    <t>{{DensidadDelAgua}}</t>
-  </si>
-  <si>
-    <t>{{GravedadEspecificaEtil}}</t>
+    <t>{{Mercaptano.DensidadDelAgua}}</t>
+  </si>
+  <si>
+    <t>{{Mercaptano.GravedadEspecificaEtil}}</t>
   </si>
 </sst>
 </file>
@@ -664,6 +664,24 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -685,6 +703,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,39 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,84 +1280,84 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1375,11 +1375,11 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1396,69 +1396,69 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="58"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="56"/>
+      <c r="J21" s="62"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="6"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1469,14 +1469,14 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="56"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
@@ -1489,41 +1489,41 @@
       <c r="B33" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="4"/>
     </row>
   </sheetData>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6D6252-C71F-48B5-A419-E818905D0529}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,10 +1566,10 @@
       <c r="H1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="66"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -1583,10 +1583,10 @@
       <c r="H2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -1601,10 +1601,10 @@
       <c r="H3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="68">
         <v>40513</v>
       </c>
-      <c r="J3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -1617,10 +1617,10 @@
       <c r="H4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -1680,10 +1680,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1744,16 +1744,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1782,52 +1782,52 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="54" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="54" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="22"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="10"/>
@@ -1994,10 +1994,10 @@
       <c r="E29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="54" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="10"/>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="10"/>
@@ -2014,10 +2014,10 @@
       <c r="E30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="54" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="10"/>
@@ -2046,10 +2046,10 @@
       <c r="E32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="54" t="s">
         <v>45</v>
       </c>
       <c r="H32" s="10"/>
@@ -2065,7 +2065,7 @@
       <c r="F33" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="54" t="s">
         <v>46</v>
       </c>
       <c r="H33" s="10"/>
@@ -2090,12 +2090,12 @@
         <v>47</v>
       </c>
       <c r="C35" s="25"/>
-      <c r="D35" s="71"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="71" t="s">
+      <c r="G35" s="54" t="s">
         <v>48</v>
       </c>
       <c r="H35" s="10"/>
@@ -2155,39 +2155,39 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2255,12 +2255,12 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
       <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,12 +2268,12 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2281,12 +2281,12 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2295,12 +2295,12 @@
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="61" t="s">
+      <c r="F50" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,17 +2377,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="C39:I41"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/cartas/OsinergminMercaptano.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/cartas/OsinergminMercaptano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\cartas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F88DC6-259F-4CB8-B50E-C86EEBC6E760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA8BA0F-A4D0-4C77-8315-2BF19766A05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C8FC5450-17C5-4C27-BE32-326C1CD393B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8FC5450-17C5-4C27-BE32-326C1CD393B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -703,6 +703,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,21 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,59 +752,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>46264</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>20936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>636522</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC6989F-A044-405A-9663-571199E6700E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360589" y="6650336"/>
-          <a:ext cx="1352258" cy="883939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -832,7 +779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -909,56 +856,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>261256</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>106658</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>126507</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44E0773-F7C3-4D50-98DD-D64F4CCBAEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4833256" y="8298158"/>
-          <a:ext cx="1234169" cy="781849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1265,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02853BE-23F3-4FDB-A85E-D2B25CE2876F}">
   <dimension ref="B8:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6D6252-C71F-48B5-A419-E818905D0529}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,10 +1463,10 @@
       <c r="H1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -1583,10 +1480,10 @@
       <c r="H2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -1601,10 +1498,10 @@
       <c r="H3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="73">
         <v>40513</v>
       </c>
-      <c r="J3" s="69"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -1617,10 +1514,10 @@
       <c r="H4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -1680,10 +1577,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1744,16 +1641,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2155,39 +2052,39 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
       <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2255,12 +2152,12 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
       <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,12 +2165,12 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2281,12 +2178,12 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2295,12 +2192,12 @@
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,17 +2274,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="C39:I41"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
